--- a/data/trans_orig/P79A1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5831</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2419</v>
+        <v>2362</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8511</v>
+        <v>8533</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6066186721352775</v>
+        <v>0.6066186721352774</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2516901594018036</v>
+        <v>0.2457341297092394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.885418226499291</v>
+        <v>0.8877474388539243</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>7009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4418</v>
+        <v>4038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8626</v>
+        <v>8600</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7571186995088504</v>
+        <v>0.7571186995088502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4772229602888535</v>
+        <v>0.4361614028266484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9318497562794381</v>
+        <v>0.9290740121558252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>12839</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8352</v>
+        <v>8092</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16341</v>
+        <v>16024</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6804513238906414</v>
+        <v>0.6804513238906413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4426467451448622</v>
+        <v>0.4288516422095998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8660831980715152</v>
+        <v>0.8492513330921647</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7193</v>
+        <v>7249</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3933813278647225</v>
+        <v>0.3933813278647224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1145817735007089</v>
+        <v>0.1119237603208044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7483098405981963</v>
+        <v>0.754210090879045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>2248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4839</v>
+        <v>5219</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2428813004911496</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06815024372056197</v>
+        <v>0.07092598784417477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5227770397111468</v>
+        <v>0.5638385971733522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>6029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2527</v>
+        <v>2844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10516</v>
+        <v>10776</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3195486761093587</v>
+        <v>0.3195486761093586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1339168019284849</v>
+        <v>0.1507486669078354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.557353254855138</v>
+        <v>0.5711483577904002</v>
       </c>
     </row>
     <row r="6">
@@ -971,16 +971,16 @@
         <v>8004</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5729</v>
+        <v>5574</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>8651</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9252004769329589</v>
+        <v>0.925200476932959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.662245699885178</v>
+        <v>0.6442971768856914</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>24364</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21668</v>
+        <v>21184</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>25011</v>
@@ -1001,7 +1001,7 @@
         <v>0.9741287879266035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8663194118113708</v>
+        <v>0.8469896577926603</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2922</v>
+        <v>3077</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07479952306704107</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3377543001148217</v>
+        <v>0.3557028231143076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3343</v>
+        <v>3827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02587121207339645</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1336805881886292</v>
+        <v>0.1530103422073416</v>
       </c>
     </row>
     <row r="9">
@@ -1497,19 +1497,19 @@
         <v>30961</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24705</v>
+        <v>24518</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33719</v>
+        <v>33707</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8911634239501254</v>
+        <v>0.8911634239501253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7110862980781096</v>
+        <v>0.705715058155631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.970559150217009</v>
+        <v>0.9702157100088056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1518,19 +1518,19 @@
         <v>22604</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18793</v>
+        <v>18966</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24806</v>
+        <v>24818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.886454536638155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.737008594944676</v>
+        <v>0.7437806535327599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9728278536387069</v>
+        <v>0.9733082937331488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1539,19 +1539,19 @@
         <v>53565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46745</v>
+        <v>47216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57291</v>
+        <v>57359</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8891702126010994</v>
+        <v>0.8891702126010995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7759641094291435</v>
+        <v>0.7837797016899024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9510349102973898</v>
+        <v>0.9521533868826897</v>
       </c>
     </row>
     <row r="17">
@@ -1568,19 +1568,19 @@
         <v>3781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10037</v>
+        <v>10224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1088365760498748</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02944084978299099</v>
+        <v>0.02978428999119431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2889137019218905</v>
+        <v>0.2942849418443691</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1589,19 +1589,19 @@
         <v>2895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6706</v>
+        <v>6533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1135454633618452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02717214636129301</v>
+        <v>0.02669170626685134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2629914050553239</v>
+        <v>0.2562193464672403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1610,19 +1610,19 @@
         <v>6676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2950</v>
+        <v>2882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13496</v>
+        <v>13025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1108297873989006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04896508970260999</v>
+        <v>0.04784661311731012</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2240358905708565</v>
+        <v>0.2162202983100977</v>
       </c>
     </row>
     <row r="18">
